--- a/data/describe/RunExamples.xlsx
+++ b/data/describe/RunExamples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phassard/Documents/footballData/twelve-gpt-educational/data/describe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D257816-1314-5045-94C3-20567706BE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8FEEFD-4C00-184C-87E3-D711D5C135FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{AFEFF31D-C8C2-4721-8CB7-A78D0EE416FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>user</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>A player excellent in possession runs but average in speed relies more on technical skill, control, and awareness rather than pace to move the ball forward effectively.</t>
+  </si>
+  <si>
+    <t>What is the absolute or abs run angle?</t>
+  </si>
+  <si>
+    <t>The absolute run angle or abs run angle takes the absolute value of run angle. This is calculated to remove directional bias, revealing the variety in his runs, both toward and away from the goal.</t>
+  </si>
+  <si>
+    <t>What does a low absolute or abs run angle mean?</t>
+  </si>
+  <si>
+    <t>A low absolute angle means the players runs are going forward, towards goal, as the absolute angle will be bettween 0 and 180.</t>
   </si>
 </sst>
 </file>
@@ -496,13 +508,13 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.5" customWidth="1"/>
-    <col min="2" max="2" width="106.5" customWidth="1"/>
+    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -649,13 +661,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
